--- a/Test/result_A.xlsx
+++ b/Test/result_A.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,7 +536,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Not Changed</t>
+          <t>Changed</t>
         </is>
       </c>
     </row>
@@ -590,7 +590,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Not Changed</t>
+          <t>Changed</t>
         </is>
       </c>
     </row>
@@ -626,7 +626,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Not Changed</t>
+          <t>Changed</t>
         </is>
       </c>
     </row>
@@ -662,7 +662,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Not Changed</t>
+          <t>Changed</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Not Changed</t>
+          <t>Changed</t>
         </is>
       </c>
     </row>
@@ -717,6 +717,86 @@
       <c r="D16" t="inlineStr">
         <is>
           <t>Not Changed</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>emScript</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1.3.6</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Not Changed</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Ph_plugin</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0.1.564</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Not Changed</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Zebra DS</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>10.0.7.1001</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Changed</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Zebra DSP</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>10.0.7.1001</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Changed</t>
         </is>
       </c>
     </row>
